--- a/legislator/property/output/tmpa85c1_王金平_2011-11-22_財產申報表.xlsx
+++ b/legislator/property/output/tmpa85c1_王金平_2011-11-22_財產申報表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="106">
   <si>
     <t>土地坐落</t>
   </si>
@@ -73,88 +73,85 @@
     <t>臺北市中山區北安段一小段 0168-0000 地號</t>
   </si>
   <si>
-    <t>土 地坐落</t>
+    <t>2分之1</t>
+  </si>
+  <si>
+    <t>10000分之 86</t>
+  </si>
+  <si>
+    <t>10000分之 668</t>
+  </si>
+  <si>
+    <t>王金平</t>
+  </si>
+  <si>
+    <t>王陳彩蓮</t>
+  </si>
+  <si>
+    <t>82年01月 20日</t>
+  </si>
+  <si>
+    <t>87年09月 02日</t>
+  </si>
+  <si>
+    <t>74年01月 08日</t>
+  </si>
+  <si>
+    <t>貝賣</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>貝賈</t>
+  </si>
+  <si>
+    <t>ITTTpJj 貝賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>建物標示</t>
+  </si>
+  <si>
+    <t>臺北市中山區北安段一小段 04914-000 建號</t>
+  </si>
+  <si>
+    <t>臺北市中山區北安段一小段 01174-000建號(停車位）</t>
+  </si>
+  <si>
+    <t>建 物</t>
+  </si>
+  <si>
+    <t>標</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>37分之2</t>
+  </si>
+  <si>
+    <t>示</t>
   </si>
   <si>
     <t>面積（平方 公尺 ）</t>
   </si>
   <si>
-    <t>2分之1</t>
-  </si>
-  <si>
-    <t>10000分之 86</t>
-  </si>
-  <si>
-    <t>10000分之 668</t>
+    <t>74年01月 28日</t>
   </si>
   <si>
     <t>權利範圍 (持分）</t>
   </si>
   <si>
-    <t>王金平</t>
-  </si>
-  <si>
-    <t>王陳彩蓮</t>
-  </si>
-  <si>
-    <t>82年01月 20日</t>
-  </si>
-  <si>
-    <t>87年09月 02日</t>
-  </si>
-  <si>
-    <t>74年01月 08日</t>
-  </si>
-  <si>
     <t>變動時間</t>
   </si>
   <si>
-    <t>貝賣</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>貝賈</t>
-  </si>
-  <si>
-    <t>ITTTpJj 貝賣</t>
-  </si>
-  <si>
     <t>變動原因</t>
   </si>
   <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
     <t>變動時之價額</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺北市中山區北安段一小段 04914-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市中山區北安段一小段 01174-000建號(停車位）</t>
-  </si>
-  <si>
-    <t>建 物</t>
-  </si>
-  <si>
-    <t>標</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>37分之2</t>
-  </si>
-  <si>
-    <t>示</t>
-  </si>
-  <si>
-    <t>74年01月 28日</t>
   </si>
   <si>
     <t>種類</t>
@@ -708,7 +705,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -748,19 +745,19 @@
         <v>1069088</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -774,19 +771,19 @@
         <v>9977</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -800,19 +797,19 @@
         <v>6406</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -826,19 +823,19 @@
         <v>282</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -852,19 +849,19 @@
         <v>88739</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -878,19 +875,19 @@
         <v>2159.39</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -904,45 +901,19 @@
         <v>622</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -960,25 +931,25 @@
   <sheetData>
     <row r="1" spans="2:8">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -996,34 +967,34 @@
   <sheetData>
     <row r="1" spans="2:11">
       <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1041,16 +1012,16 @@
   <sheetData>
     <row r="1" spans="2:5">
       <c r="B1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1068,16 +1039,16 @@
   <sheetData>
     <row r="1" spans="2:5">
       <c r="B1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1095,34 +1066,34 @@
   <sheetData>
     <row r="1" spans="2:11">
       <c r="B1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1140,34 +1111,34 @@
   <sheetData>
     <row r="1" spans="2:11">
       <c r="B1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1185,22 +1156,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1208,22 +1179,22 @@
         <v>114</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="E2" s="2">
         <v>600000</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1241,7 +1212,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1269,25 +1240,25 @@
         <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2">
         <v>185.6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -1297,25 +1268,25 @@
         <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2">
         <v>1614.05</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1325,31 +1296,31 @@
         <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1367,16 +1338,16 @@
   <sheetData>
     <row r="1" spans="2:8">
       <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -1403,13 +1374,13 @@
   <sheetData>
     <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -1436,16 +1407,16 @@
   <sheetData>
     <row r="1" spans="2:8">
       <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -1472,16 +1443,16 @@
   <sheetData>
     <row r="1" spans="2:5">
       <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1499,22 +1470,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1522,16 +1493,16 @@
         <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1543,16 +1514,16 @@
         <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1564,16 +1535,16 @@
         <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1585,16 +1556,16 @@
         <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1606,16 +1577,16 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1627,16 +1598,16 @@
         <v>62</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1648,20 +1619,20 @@
         <v>63</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1669,16 +1640,16 @@
         <v>64</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1690,16 +1661,16 @@
         <v>65</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -1721,22 +1692,22 @@
   <sheetData>
     <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1754,28 +1725,28 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
